--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value665.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value665.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.703389700084065</v>
+        <v>1.398934602737427</v>
       </c>
       <c r="B1">
-        <v>1.92207786575258</v>
+        <v>2.273723840713501</v>
       </c>
       <c r="C1">
-        <v>1.976248722251432</v>
+        <v>2.686756610870361</v>
       </c>
       <c r="D1">
-        <v>2.424727218944169</v>
+        <v>3.096260547637939</v>
       </c>
       <c r="E1">
-        <v>3.431593375960799</v>
+        <v>2.363765001296997</v>
       </c>
     </row>
   </sheetData>
